--- a/Contract/storage/excel/works_contract_2025.xlsx
+++ b/Contract/storage/excel/works_contract_2025.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5735,6 +5735,2122 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr"/>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr"/>
+      <c r="F52" s="1" t="inlineStr"/>
+      <c r="G52" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H52" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I52" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1" t="inlineStr">
+        <is>
+          <t>J4Rkwq7N4aI</t>
+        </is>
+      </c>
+      <c r="L52" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=J4Rkwq7N4aI</t>
+        </is>
+      </c>
+      <c r="M52" s="1" t="n">
+        <v>6573551</v>
+      </c>
+      <c r="N52" s="1" t="inlineStr">
+        <is>
+          <t>Giai Điệu Tổ Quốc</t>
+        </is>
+      </c>
+      <c r="O52" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P52" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q52" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="R52" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00 - 00:03:38</t>
+        </is>
+      </c>
+      <c r="S52" s="1" t="inlineStr">
+        <is>
+          <t>00:03:38</t>
+        </is>
+      </c>
+      <c r="T52" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2025</t>
+        </is>
+      </c>
+      <c r="U52" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2027</t>
+        </is>
+      </c>
+      <c r="V52" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W52" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X52" s="1" t="inlineStr"/>
+      <c r="Y52" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr"/>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr"/>
+      <c r="F53" s="1" t="inlineStr"/>
+      <c r="G53" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H53" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I53" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" s="1" t="inlineStr">
+        <is>
+          <t>SiPJGfY2qdc</t>
+        </is>
+      </c>
+      <c r="L53" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SiPJGfY2qdc</t>
+        </is>
+      </c>
+      <c r="M53" s="1" t="n">
+        <v>6557977</v>
+      </c>
+      <c r="N53" s="1" t="inlineStr">
+        <is>
+          <t>Vết Chân Tròn Trên Cát</t>
+        </is>
+      </c>
+      <c r="O53" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P53" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q53" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="R53" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00 - 00:04:41</t>
+        </is>
+      </c>
+      <c r="S53" s="1" t="inlineStr">
+        <is>
+          <t>00:04:41</t>
+        </is>
+      </c>
+      <c r="T53" s="1" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="U53" s="1" t="inlineStr">
+        <is>
+          <t>03/05/2027</t>
+        </is>
+      </c>
+      <c r="V53" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W53" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X53" s="1" t="inlineStr"/>
+      <c r="Y53" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr"/>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr"/>
+      <c r="F54" s="1" t="inlineStr"/>
+      <c r="G54" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H54" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I54" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" s="1" t="inlineStr">
+        <is>
+          <t>MhKIChejqvc</t>
+        </is>
+      </c>
+      <c r="L54" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=MhKIChejqvc</t>
+        </is>
+      </c>
+      <c r="M54" s="1" t="n">
+        <v>7955836</v>
+      </c>
+      <c r="N54" s="1" t="inlineStr">
+        <is>
+          <t>Mẹ Tôi</t>
+        </is>
+      </c>
+      <c r="O54" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P54" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q54" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="R54" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00 - 00:06:00</t>
+        </is>
+      </c>
+      <c r="S54" s="1" t="inlineStr">
+        <is>
+          <t>00:06:00</t>
+        </is>
+      </c>
+      <c r="T54" s="1" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
+      <c r="U54" s="1" t="inlineStr">
+        <is>
+          <t>10/05/2027</t>
+        </is>
+      </c>
+      <c r="V54" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W54" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X54" s="1" t="inlineStr"/>
+      <c r="Y54" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr"/>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr"/>
+      <c r="F55" s="1" t="inlineStr"/>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H55" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I55" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J55" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K55" s="1" t="inlineStr">
+        <is>
+          <t>aFNejdid42c</t>
+        </is>
+      </c>
+      <c r="L55" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=aFNejdid42c</t>
+        </is>
+      </c>
+      <c r="M55" s="1" t="n">
+        <v>25251479</v>
+      </c>
+      <c r="N55" s="1" t="inlineStr">
+        <is>
+          <t>Phiêu Bạt</t>
+        </is>
+      </c>
+      <c r="O55" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P55" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q55" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="R55" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00 - 00:06:33</t>
+        </is>
+      </c>
+      <c r="S55" s="1" t="inlineStr">
+        <is>
+          <t>00:06:33</t>
+        </is>
+      </c>
+      <c r="T55" s="1" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+      <c r="U55" s="1" t="inlineStr">
+        <is>
+          <t>24/05/2027</t>
+        </is>
+      </c>
+      <c r="V55" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W55" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X55" s="1" t="inlineStr"/>
+      <c r="Y55" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr"/>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr"/>
+      <c r="F56" s="1" t="inlineStr"/>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H56" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I56" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J56" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K56" s="1" t="inlineStr">
+        <is>
+          <t>Q6ncgm4wvtg</t>
+        </is>
+      </c>
+      <c r="L56" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Q6ncgm4wvtg</t>
+        </is>
+      </c>
+      <c r="M56" s="1" t="n">
+        <v>6566789</v>
+      </c>
+      <c r="N56" s="1" t="inlineStr">
+        <is>
+          <t>Ngẫu Hứng Sông Hồng</t>
+        </is>
+      </c>
+      <c r="O56" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P56" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q56" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="R56" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00 - 00:05:50</t>
+        </is>
+      </c>
+      <c r="S56" s="1" t="inlineStr">
+        <is>
+          <t>00:05:50</t>
+        </is>
+      </c>
+      <c r="T56" s="1" t="inlineStr">
+        <is>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="U56" s="1" t="inlineStr">
+        <is>
+          <t>04/07/2027</t>
+        </is>
+      </c>
+      <c r="V56" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W56" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X56" s="1" t="inlineStr"/>
+      <c r="Y56" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr"/>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr"/>
+      <c r="F57" s="1" t="inlineStr"/>
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H57" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I57" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J57" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K57" s="1" t="inlineStr">
+        <is>
+          <t>5O4TkqyF_Tk</t>
+        </is>
+      </c>
+      <c r="L57" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5O4TkqyF_Tk</t>
+        </is>
+      </c>
+      <c r="M57" s="1" t="n">
+        <v>6559783</v>
+      </c>
+      <c r="N57" s="1" t="inlineStr">
+        <is>
+          <t>Tóc Gió Thôi Bay</t>
+        </is>
+      </c>
+      <c r="O57" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P57" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q57" s="1" t="n"/>
+      <c r="R57" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00 - 00:04:34</t>
+        </is>
+      </c>
+      <c r="S57" s="1" t="inlineStr">
+        <is>
+          <t>00:04:34</t>
+        </is>
+      </c>
+      <c r="T57" s="1" t="inlineStr">
+        <is>
+          <t>21/06/2025</t>
+        </is>
+      </c>
+      <c r="U57" s="1" t="inlineStr">
+        <is>
+          <t>20/06/2027</t>
+        </is>
+      </c>
+      <c r="V57" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W57" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X57" s="1" t="inlineStr"/>
+      <c r="Y57" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr"/>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr"/>
+      <c r="F58" s="1" t="inlineStr"/>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H58" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I58" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J58" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K58" s="1" t="inlineStr">
+        <is>
+          <t>k0OuCq-orkU</t>
+        </is>
+      </c>
+      <c r="L58" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=k0OuCq-orkU</t>
+        </is>
+      </c>
+      <c r="M58" s="1" t="n">
+        <v>6570059</v>
+      </c>
+      <c r="N58" s="1" t="inlineStr">
+        <is>
+          <t>Sao Em Nỡ Vội Lấy Chồng</t>
+        </is>
+      </c>
+      <c r="O58" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P58" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q58" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="R58" s="1" t="inlineStr">
+        <is>
+          <t>00:00:51 - 00:05:57</t>
+        </is>
+      </c>
+      <c r="S58" s="1" t="inlineStr">
+        <is>
+          <t>00:05:06</t>
+        </is>
+      </c>
+      <c r="T58" s="1" t="inlineStr">
+        <is>
+          <t>16/08/2025</t>
+        </is>
+      </c>
+      <c r="U58" s="1" t="inlineStr">
+        <is>
+          <t>15/08/2027</t>
+        </is>
+      </c>
+      <c r="V58" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W58" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X58" s="1" t="inlineStr"/>
+      <c r="Y58" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr"/>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr"/>
+      <c r="F59" s="1" t="inlineStr"/>
+      <c r="G59" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H59" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I59" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J59" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K59" s="1" t="inlineStr">
+        <is>
+          <t>HBoA-lEFdwU</t>
+        </is>
+      </c>
+      <c r="L59" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=HBoA-lEFdwU</t>
+        </is>
+      </c>
+      <c r="M59" s="1" t="n">
+        <v>6579027</v>
+      </c>
+      <c r="N59" s="1" t="inlineStr">
+        <is>
+          <t>Chị Tôi</t>
+        </is>
+      </c>
+      <c r="O59" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P59" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q59" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="R59" s="1" t="inlineStr">
+        <is>
+          <t>00:00:02 - 00:05:38</t>
+        </is>
+      </c>
+      <c r="S59" s="1" t="inlineStr">
+        <is>
+          <t>00:05:36</t>
+        </is>
+      </c>
+      <c r="T59" s="1" t="inlineStr">
+        <is>
+          <t>09/08/2025</t>
+        </is>
+      </c>
+      <c r="U59" s="1" t="inlineStr">
+        <is>
+          <t>08/08/2027</t>
+        </is>
+      </c>
+      <c r="V59" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W59" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X59" s="1" t="inlineStr"/>
+      <c r="Y59" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr"/>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr"/>
+      <c r="F60" s="1" t="inlineStr"/>
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H60" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I60" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J60" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K60" s="1" t="inlineStr">
+        <is>
+          <t>UnzVm6wIL3g</t>
+        </is>
+      </c>
+      <c r="L60" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=UnzVm6wIL3g</t>
+        </is>
+      </c>
+      <c r="M60" s="1" t="n">
+        <v>6573678</v>
+      </c>
+      <c r="N60" s="1" t="inlineStr">
+        <is>
+          <t>Giấc Mơ Chapi</t>
+        </is>
+      </c>
+      <c r="O60" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P60" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q60" s="1" t="n"/>
+      <c r="R60" s="1" t="inlineStr">
+        <is>
+          <t>00:03:05 - 00:08:27</t>
+        </is>
+      </c>
+      <c r="S60" s="1" t="inlineStr">
+        <is>
+          <t>00:05:22</t>
+        </is>
+      </c>
+      <c r="T60" s="1" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
+        </is>
+      </c>
+      <c r="U60" s="1" t="inlineStr">
+        <is>
+          <t>22/07/2027</t>
+        </is>
+      </c>
+      <c r="V60" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W60" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X60" s="1" t="inlineStr"/>
+      <c r="Y60" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr"/>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr"/>
+      <c r="F61" s="1" t="inlineStr"/>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H61" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I61" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K61" s="1" t="inlineStr">
+        <is>
+          <t>GDIszPrsLVI</t>
+        </is>
+      </c>
+      <c r="L61" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=GDIszPrsLVI</t>
+        </is>
+      </c>
+      <c r="M61" s="1" t="n">
+        <v>6568169</v>
+      </c>
+      <c r="N61" s="1" t="inlineStr">
+        <is>
+          <t>Một Mình</t>
+        </is>
+      </c>
+      <c r="O61" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P61" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q61" s="1" t="n"/>
+      <c r="R61" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00 - 00:06:05</t>
+        </is>
+      </c>
+      <c r="S61" s="1" t="inlineStr">
+        <is>
+          <t>00:06:05</t>
+        </is>
+      </c>
+      <c r="T61" s="1" t="inlineStr">
+        <is>
+          <t>31/05/2025</t>
+        </is>
+      </c>
+      <c r="U61" s="1" t="inlineStr">
+        <is>
+          <t>30/05/2027</t>
+        </is>
+      </c>
+      <c r="V61" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W61" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X61" s="1" t="inlineStr"/>
+      <c r="Y61" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="F62" s="1" t="inlineStr"/>
+      <c r="G62" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H62" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I62" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1" t="inlineStr">
+        <is>
+          <t>J4Rkwq7N4aI</t>
+        </is>
+      </c>
+      <c r="L62" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=J4Rkwq7N4aI</t>
+        </is>
+      </c>
+      <c r="M62" s="1" t="n">
+        <v>6573551</v>
+      </c>
+      <c r="N62" s="1" t="inlineStr">
+        <is>
+          <t>Giai Điệu Tổ Quốc</t>
+        </is>
+      </c>
+      <c r="O62" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P62" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q62" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="R62" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00 - 00:03:38</t>
+        </is>
+      </c>
+      <c r="S62" s="1" t="inlineStr">
+        <is>
+          <t>00:03:38</t>
+        </is>
+      </c>
+      <c r="T62" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2025</t>
+        </is>
+      </c>
+      <c r="U62" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2027</t>
+        </is>
+      </c>
+      <c r="V62" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W62" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X62" s="1" t="inlineStr"/>
+      <c r="Y62" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="F63" s="1" t="inlineStr"/>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H63" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I63" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" s="1" t="inlineStr">
+        <is>
+          <t>SiPJGfY2qdc</t>
+        </is>
+      </c>
+      <c r="L63" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SiPJGfY2qdc</t>
+        </is>
+      </c>
+      <c r="M63" s="1" t="n">
+        <v>6557977</v>
+      </c>
+      <c r="N63" s="1" t="inlineStr">
+        <is>
+          <t>Vết Chân Tròn Trên Cát</t>
+        </is>
+      </c>
+      <c r="O63" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P63" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q63" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="R63" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00 - 00:04:41</t>
+        </is>
+      </c>
+      <c r="S63" s="1" t="inlineStr">
+        <is>
+          <t>00:04:41</t>
+        </is>
+      </c>
+      <c r="T63" s="1" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="U63" s="1" t="inlineStr">
+        <is>
+          <t>03/05/2027</t>
+        </is>
+      </c>
+      <c r="V63" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W63" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X63" s="1" t="inlineStr"/>
+      <c r="Y63" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="F64" s="1" t="inlineStr"/>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H64" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I64" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" s="1" t="inlineStr">
+        <is>
+          <t>MhKIChejqvc</t>
+        </is>
+      </c>
+      <c r="L64" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=MhKIChejqvc</t>
+        </is>
+      </c>
+      <c r="M64" s="1" t="n">
+        <v>7955836</v>
+      </c>
+      <c r="N64" s="1" t="inlineStr">
+        <is>
+          <t>Mẹ Tôi</t>
+        </is>
+      </c>
+      <c r="O64" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P64" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q64" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="R64" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00 - 00:06:00</t>
+        </is>
+      </c>
+      <c r="S64" s="1" t="inlineStr">
+        <is>
+          <t>00:06:00</t>
+        </is>
+      </c>
+      <c r="T64" s="1" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
+      <c r="U64" s="1" t="inlineStr">
+        <is>
+          <t>10/05/2027</t>
+        </is>
+      </c>
+      <c r="V64" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W64" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X64" s="1" t="inlineStr"/>
+      <c r="Y64" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr"/>
+      <c r="G65" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H65" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I65" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K65" s="1" t="inlineStr">
+        <is>
+          <t>aFNejdid42c</t>
+        </is>
+      </c>
+      <c r="L65" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=aFNejdid42c</t>
+        </is>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>25251479</v>
+      </c>
+      <c r="N65" s="1" t="inlineStr">
+        <is>
+          <t>Phiêu Bạt</t>
+        </is>
+      </c>
+      <c r="O65" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P65" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q65" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="R65" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00 - 00:06:33</t>
+        </is>
+      </c>
+      <c r="S65" s="1" t="inlineStr">
+        <is>
+          <t>00:06:33</t>
+        </is>
+      </c>
+      <c r="T65" s="1" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+      <c r="U65" s="1" t="inlineStr">
+        <is>
+          <t>24/05/2027</t>
+        </is>
+      </c>
+      <c r="V65" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W65" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X65" s="1" t="inlineStr"/>
+      <c r="Y65" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="F66" s="1" t="inlineStr"/>
+      <c r="G66" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H66" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I66" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K66" s="1" t="inlineStr">
+        <is>
+          <t>Q6ncgm4wvtg</t>
+        </is>
+      </c>
+      <c r="L66" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Q6ncgm4wvtg</t>
+        </is>
+      </c>
+      <c r="M66" s="1" t="n">
+        <v>6566789</v>
+      </c>
+      <c r="N66" s="1" t="inlineStr">
+        <is>
+          <t>Ngẫu Hứng Sông Hồng</t>
+        </is>
+      </c>
+      <c r="O66" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P66" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q66" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="R66" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00 - 00:05:50</t>
+        </is>
+      </c>
+      <c r="S66" s="1" t="inlineStr">
+        <is>
+          <t>00:05:50</t>
+        </is>
+      </c>
+      <c r="T66" s="1" t="inlineStr">
+        <is>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="U66" s="1" t="inlineStr">
+        <is>
+          <t>04/07/2027</t>
+        </is>
+      </c>
+      <c r="V66" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W66" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X66" s="1" t="inlineStr"/>
+      <c r="Y66" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="F67" s="1" t="inlineStr"/>
+      <c r="G67" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H67" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I67" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K67" s="1" t="inlineStr">
+        <is>
+          <t>5O4TkqyF_Tk</t>
+        </is>
+      </c>
+      <c r="L67" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5O4TkqyF_Tk</t>
+        </is>
+      </c>
+      <c r="M67" s="1" t="n">
+        <v>6559783</v>
+      </c>
+      <c r="N67" s="1" t="inlineStr">
+        <is>
+          <t>Tóc Gió Thôi Bay</t>
+        </is>
+      </c>
+      <c r="O67" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P67" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q67" s="1" t="n"/>
+      <c r="R67" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00 - 00:04:34</t>
+        </is>
+      </c>
+      <c r="S67" s="1" t="inlineStr">
+        <is>
+          <t>00:04:34</t>
+        </is>
+      </c>
+      <c r="T67" s="1" t="inlineStr">
+        <is>
+          <t>21/06/2025</t>
+        </is>
+      </c>
+      <c r="U67" s="1" t="inlineStr">
+        <is>
+          <t>20/06/2027</t>
+        </is>
+      </c>
+      <c r="V67" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W67" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X67" s="1" t="inlineStr"/>
+      <c r="Y67" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="F68" s="1" t="inlineStr"/>
+      <c r="G68" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H68" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I68" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K68" s="1" t="inlineStr">
+        <is>
+          <t>k0OuCq-orkU</t>
+        </is>
+      </c>
+      <c r="L68" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=k0OuCq-orkU</t>
+        </is>
+      </c>
+      <c r="M68" s="1" t="n">
+        <v>6570059</v>
+      </c>
+      <c r="N68" s="1" t="inlineStr">
+        <is>
+          <t>Sao Em Nỡ Vội Lấy Chồng</t>
+        </is>
+      </c>
+      <c r="O68" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P68" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q68" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="R68" s="1" t="inlineStr">
+        <is>
+          <t>00:00:51 - 00:05:57</t>
+        </is>
+      </c>
+      <c r="S68" s="1" t="inlineStr">
+        <is>
+          <t>00:05:06</t>
+        </is>
+      </c>
+      <c r="T68" s="1" t="inlineStr">
+        <is>
+          <t>16/08/2025</t>
+        </is>
+      </c>
+      <c r="U68" s="1" t="inlineStr">
+        <is>
+          <t>15/08/2027</t>
+        </is>
+      </c>
+      <c r="V68" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W68" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X68" s="1" t="inlineStr"/>
+      <c r="Y68" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="F69" s="1" t="inlineStr"/>
+      <c r="G69" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H69" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I69" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K69" s="1" t="inlineStr">
+        <is>
+          <t>HBoA-lEFdwU</t>
+        </is>
+      </c>
+      <c r="L69" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=HBoA-lEFdwU</t>
+        </is>
+      </c>
+      <c r="M69" s="1" t="n">
+        <v>6579027</v>
+      </c>
+      <c r="N69" s="1" t="inlineStr">
+        <is>
+          <t>Chị Tôi</t>
+        </is>
+      </c>
+      <c r="O69" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P69" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q69" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="R69" s="1" t="inlineStr">
+        <is>
+          <t>00:00:02 - 00:05:38</t>
+        </is>
+      </c>
+      <c r="S69" s="1" t="inlineStr">
+        <is>
+          <t>00:05:36</t>
+        </is>
+      </c>
+      <c r="T69" s="1" t="inlineStr">
+        <is>
+          <t>09/08/2025</t>
+        </is>
+      </c>
+      <c r="U69" s="1" t="inlineStr">
+        <is>
+          <t>08/08/2027</t>
+        </is>
+      </c>
+      <c r="V69" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W69" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X69" s="1" t="inlineStr"/>
+      <c r="Y69" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="F70" s="1" t="inlineStr"/>
+      <c r="G70" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H70" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I70" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K70" s="1" t="inlineStr">
+        <is>
+          <t>UnzVm6wIL3g</t>
+        </is>
+      </c>
+      <c r="L70" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=UnzVm6wIL3g</t>
+        </is>
+      </c>
+      <c r="M70" s="1" t="n">
+        <v>6573678</v>
+      </c>
+      <c r="N70" s="1" t="inlineStr">
+        <is>
+          <t>Giấc Mơ Chapi</t>
+        </is>
+      </c>
+      <c r="O70" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P70" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q70" s="1" t="n"/>
+      <c r="R70" s="1" t="inlineStr">
+        <is>
+          <t>00:03:05 - 00:08:27</t>
+        </is>
+      </c>
+      <c r="S70" s="1" t="inlineStr">
+        <is>
+          <t>00:05:22</t>
+        </is>
+      </c>
+      <c r="T70" s="1" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
+        </is>
+      </c>
+      <c r="U70" s="1" t="inlineStr">
+        <is>
+          <t>22/07/2027</t>
+        </is>
+      </c>
+      <c r="V70" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W70" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X70" s="1" t="inlineStr"/>
+      <c r="Y70" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="F71" s="1" t="inlineStr"/>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
+          <t>HỒ TRUNG DŨNG</t>
+        </is>
+      </c>
+      <c r="H71" s="1" t="inlineStr">
+        <is>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="I71" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K71" s="1" t="inlineStr">
+        <is>
+          <t>GDIszPrsLVI</t>
+        </is>
+      </c>
+      <c r="L71" s="1" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=GDIszPrsLVI</t>
+        </is>
+      </c>
+      <c r="M71" s="1" t="n">
+        <v>6568169</v>
+      </c>
+      <c r="N71" s="1" t="inlineStr">
+        <is>
+          <t>Một Mình</t>
+        </is>
+      </c>
+      <c r="O71" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="P71" s="1" t="inlineStr">
+        <is>
+          <t>Trần Tiến</t>
+        </is>
+      </c>
+      <c r="Q71" s="1" t="n"/>
+      <c r="R71" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00 - 00:06:05</t>
+        </is>
+      </c>
+      <c r="S71" s="1" t="inlineStr">
+        <is>
+          <t>00:06:05</t>
+        </is>
+      </c>
+      <c r="T71" s="1" t="inlineStr">
+        <is>
+          <t>31/05/2025</t>
+        </is>
+      </c>
+      <c r="U71" s="1" t="inlineStr">
+        <is>
+          <t>30/05/2027</t>
+        </is>
+      </c>
+      <c r="V71" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="W71" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="X71" s="1" t="inlineStr"/>
+      <c r="Y71" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-29 15:13:53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
